--- a/reports/resnet18_23_no_MMTM/prediction/2/prediction_test_2.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/2/prediction_test_2.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
